--- a/Code/math_mean_dim30.xlsx
+++ b/Code/math_mean_dim30.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="3">
   <si>
     <t>DE</t>
   </si>
@@ -44,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -70,11 +70,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -94,6 +96,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,56 +107,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="10.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>47134.147598265423</v>
+        <v>824.71775034307473</v>
       </c>
       <c r="B2">
-        <v>7236.555876928619</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>33725.487799536917</v>
+        <v>1.7471387511783381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>109423.46725457226</v>
+        <v>47325.512053847655</v>
       </c>
       <c r="B3">
-        <v>37313.028579070073</v>
+        <v>4.3350449317005426e-05</v>
       </c>
       <c r="C3">
-        <v>41395.431299508666</v>
+        <v>2.3209727000411151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>907385906.07355928</v>
+        <v>280198892.27415079</v>
       </c>
       <c r="B4">
-        <v>267937337.08229232</v>
+        <v>2187258.3977895114</v>
       </c>
       <c r="C4">
-        <v>308044016.84714973</v>
+        <v>8001.9313718522271</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>59382.881935868325</v>
+      </c>
+      <c r="B5">
+        <v>3125.1308022678668</v>
+      </c>
+      <c r="C5">
+        <v>158.26503158420809</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>9970.7975789722514</v>
+      </c>
+      <c r="B6">
+        <v>4442.0262216396959</v>
+      </c>
+      <c r="C6">
+        <v>4517.6203506217162</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>19820951.008557044</v>
+      </c>
+      <c r="B7">
+        <v>48.420048624196099</v>
+      </c>
+      <c r="C7">
+        <v>27443.110949174195</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>48.718009330786018</v>
+      </c>
+      <c r="B8">
+        <v>0.020171513055573374</v>
+      </c>
+      <c r="C8">
+        <v>1.0636607100405306</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>20.92136743429991</v>
+      </c>
+      <c r="B9">
+        <v>20.900697751063891</v>
+      </c>
+      <c r="C9">
+        <v>20.974228584749142</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>126.41399112059712</v>
+      </c>
+      <c r="B10">
+        <v>72.200666130608653</v>
+      </c>
+      <c r="C10">
+        <v>242.98278966401176</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>272.98788171660806</v>
+      </c>
+      <c r="B11">
+        <v>113.7232547378308</v>
+      </c>
+      <c r="C11">
+        <v>246.67855769480886</v>
       </c>
     </row>
   </sheetData>
